--- a/testers/test.xlsx
+++ b/testers/test.xlsx
@@ -548,20 +548,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="4" width="3.3984375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="9.796875"/>
-    <col customWidth="1" max="4" min="4" style="8" width="8.796875"/>
-    <col customWidth="1" max="6" min="5" style="10" width="22.8984375"/>
-    <col customWidth="1" max="8" min="7" style="11" width="17.69921875"/>
-    <col customWidth="1" max="9" min="9" style="8" width="17.69921875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="17" width="11.59765625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="17" width="12.5"/>
+    <col customWidth="1" max="3" min="3" style="19" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="9.796875"/>
+    <col customWidth="1" max="5" min="5" style="8" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="10" width="22.8984375"/>
+    <col customWidth="1" max="9" min="8" style="11" width="17.69921875"/>
+    <col customWidth="1" max="10" min="10" style="8" width="17.69921875"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="17" width="11.59765625"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="28.2" r="1" s="2" thickBot="1">
@@ -575,49 +575,49 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Main Topic</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Sub Topic</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Wrong Answer 1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Wrong Answer 2</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Wrong Answer 3</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="K1" s="16" t="inlineStr">
         <is>
           <t>Date Created</t>
-        </is>
-      </c>
-      <c r="K1" s="16" t="inlineStr">
-        <is>
-          <t>Date Updated</t>
         </is>
       </c>
     </row>
@@ -628,30 +628,35 @@
       <c r="B2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>Quest1</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Ans1</t>
         </is>
       </c>
-      <c r="G2" s="15" t="n"/>
       <c r="H2" s="15" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="17" t="n">
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="13" t="n"/>
+      <c r="K2" s="17" t="n">
         <v>43932</v>
       </c>
     </row>
@@ -662,22 +667,27 @@
       <c r="B3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>Quest1</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>Ans1</t>
         </is>
@@ -690,25 +700,30 @@
       <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>Quest2</t>
         </is>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="G4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="H4" s="11" t="n">
         <v>3</v>
       </c>
     </row>

--- a/testers/test.xlsx
+++ b/testers/test.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -140,72 +140,72 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -546,25 +546,25 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="2.19921875"/>
-    <col customWidth="1" max="3" min="3" style="19" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="9.796875"/>
-    <col customWidth="1" max="5" min="5" style="8" width="8.796875"/>
-    <col customWidth="1" max="7" min="6" style="10" width="22.8984375"/>
-    <col customWidth="1" max="9" min="8" style="11" width="17.69921875"/>
-    <col customWidth="1" max="10" min="10" style="8" width="17.69921875"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="17" width="11.59765625"/>
+    <col width="3.3984375" customWidth="1" style="4" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="19" min="3" max="3"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="8" min="5" max="5"/>
+    <col width="22.8984375" customWidth="1" style="10" min="6" max="7"/>
+    <col width="17.69921875" customWidth="1" style="11" min="8" max="9"/>
+    <col width="17.69921875" customWidth="1" style="8" min="10" max="10"/>
+    <col width="11.59765625" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="2" thickBot="1">
+    <row r="1" ht="28.2" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Id</t>
@@ -621,7 +621,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
     </row>
     <row r="5"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testers/test.xlsx
+++ b/testers/test.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -140,72 +140,72 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -544,27 +544,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C3" pane="bottomLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="4" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="19" min="3" max="3"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="8" min="5" max="5"/>
-    <col width="22.8984375" customWidth="1" style="10" min="6" max="7"/>
-    <col width="17.69921875" customWidth="1" style="11" min="8" max="9"/>
-    <col width="17.69921875" customWidth="1" style="8" min="10" max="10"/>
-    <col width="11.59765625" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" style="4" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="19" width="6.296875"/>
+    <col customWidth="1" max="4" min="4" style="19" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="9.796875"/>
+    <col customWidth="1" max="6" min="6" style="8" width="8.796875"/>
+    <col customWidth="1" max="8" min="7" style="10" width="22.8984375"/>
+    <col customWidth="1" max="10" min="9" style="11" width="17.69921875"/>
+    <col customWidth="1" max="11" min="11" style="8" width="17.69921875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="17" width="11.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.2" customFormat="1" customHeight="1" s="2" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Id</t>
@@ -577,51 +578,56 @@
       </c>
       <c r="C1" s="18" t="inlineStr">
         <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="18" t="inlineStr">
+        <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Main Topic</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Sub Topic</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Wrong Answer 1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Wrong Answer 2</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Wrong Answer 3</t>
         </is>
       </c>
-      <c r="K1" s="16" t="inlineStr">
+      <c r="L1" s="16" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -630,33 +636,38 @@
       </c>
       <c r="C2" s="19" t="inlineStr">
         <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Quest1</t>
         </is>
       </c>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="H2" s="14" t="inlineStr">
         <is>
           <t>Ans1</t>
         </is>
       </c>
-      <c r="H2" s="15" t="n"/>
       <c r="I2" s="15" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="17" t="n">
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="17" t="n">
         <v>43932</v>
       </c>
     </row>
@@ -667,27 +678,27 @@
       <c r="B3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="D3" s="19" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>Quest1</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>Ans1</t>
         </is>
@@ -700,36 +711,36 @@
       <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>Topic1</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Topic2</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Quest2</t>
         </is>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="H4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="I4" s="11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testers/test.xlsx
+++ b/testers/test.xlsx
@@ -1,43 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\testers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F20831-A5E3-412D-8BD9-FA8447375E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Topics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Main Topic</t>
+  </si>
+  <si>
+    <t>Sub Topic</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer 1</t>
+  </si>
+  <si>
+    <t>Wrong Answer 2</t>
+  </si>
+  <si>
+    <t>Wrong Answer 3</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Topic1</t>
+  </si>
+  <si>
+    <t>Topic2</t>
+  </si>
+  <si>
+    <t>Quest1</t>
+  </si>
+  <si>
+    <t>Ans1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Quest2</t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,140 +224,81 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -539,208 +564,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C3" pane="bottomLeft" sqref="C3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="19" width="6.296875"/>
-    <col customWidth="1" max="4" min="4" style="19" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="9.796875"/>
-    <col customWidth="1" max="6" min="6" style="8" width="8.796875"/>
-    <col customWidth="1" max="8" min="7" style="10" width="22.8984375"/>
-    <col customWidth="1" max="10" min="9" style="11" width="17.69921875"/>
-    <col customWidth="1" max="11" min="11" style="8" width="17.69921875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="17" width="11.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="2.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.19921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="22.8984375" style="10" customWidth="1"/>
+    <col min="9" max="10" width="17.69921875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.69921875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="2" thickBot="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="18" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="18" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Main Topic</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Sub Topic</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wrong Answer 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wrong Answer 2</t>
-        </is>
-      </c>
-      <c r="K1" s="6" t="inlineStr">
-        <is>
-          <t>Wrong Answer 3</t>
-        </is>
-      </c>
-      <c r="L1" s="16" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="inlineStr">
-        <is>
-          <t>One</t>
-        </is>
-      </c>
-      <c r="D2" s="19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E2" s="12" t="inlineStr">
-        <is>
-          <t>Topic1</t>
-        </is>
-      </c>
-      <c r="F2" s="13" t="inlineStr">
-        <is>
-          <t>Topic2</t>
-        </is>
-      </c>
-      <c r="G2" s="14" t="inlineStr">
-        <is>
-          <t>Quest1</t>
-        </is>
-      </c>
-      <c r="H2" s="14" t="inlineStr">
-        <is>
-          <t>Ans1</t>
-        </is>
-      </c>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="17" t="n">
+      <c r="C2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="17">
         <v>43932</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Topic1</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Topic2</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>Quest1</t>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
-        <is>
-          <t>Ans1</t>
-        </is>
+      <c r="D3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>Topic1</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Topic2</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>Quest2</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n">
+      <c r="D4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD59D87-6AAE-4AB4-8CE6-E82CC14D43E2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>